--- a/Chart/YNetwork/Data.xlsx
+++ b/Chart/YNetwork/Data.xlsx
@@ -10,6 +10,56 @@
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+  <si>
+    <t>eta1</t>
+  </si>
+  <si>
+    <t>eta2</t>
+  </si>
+  <si>
+    <t>eta3</t>
+  </si>
+  <si>
+    <t>eta4</t>
+  </si>
+  <si>
+    <t>eta5</t>
+  </si>
+  <si>
+    <t>eta6</t>
+  </si>
+  <si>
+    <t>eta7</t>
+  </si>
+  <si>
+    <t>eta8</t>
+  </si>
+  <si>
+    <t>eta9</t>
+  </si>
+  <si>
+    <t>eta10</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>InitCondition</t>
+  </si>
+  <si>
+    <t>InitPower</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="125">
     <border>
       <left/>
       <right/>
@@ -54,11 +104,117 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -78,6 +234,112 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -87,39 +349,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H20"/>
+  <dimension ref="A1:U21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="true"/>
+    <col min="1" max="1" width="5" customWidth="true"/>
+    <col min="2" max="2" width="2.140625" customWidth="true"/>
+    <col min="4" max="4" width="2.140625" customWidth="true"/>
     <col min="6" max="6" width="2.140625" customWidth="true"/>
     <col min="8" max="8" width="2.85546875" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="5" customWidth="true"/>
+    <col min="13" max="13" width="15.28515625" customWidth="true"/>
+    <col min="15" max="15" width="16.28515625" customWidth="true"/>
+    <col min="17" max="17" width="2.140625" customWidth="true"/>
+    <col min="19" max="19" width="2.85546875" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1">
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4.9999999999999938</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>2.1789029308404864</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>-5.5294310796760726e-16</v>
+      </c>
+      <c r="O2">
         <v>-1.187102262763566e-15</v>
       </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="H1">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="B2">
-        <v>1.8406841159786169e-15</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="U2">
+        <v>2.1789029308404864</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
       <c r="B3">
-        <v>-1.2415376869169794e-15</v>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1.9999999999999987</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -127,10 +459,40 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="J3">
+        <v>1.1789029308404861</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.120614758428182</v>
+      </c>
+      <c r="O3">
+        <v>1.8406841159786169e-15</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1.1789029308404861</v>
+      </c>
     </row>
     <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B4">
-        <v>4.2426406871192839</v>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-5.8011106960588564e-17</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -138,120 +500,371 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>1.1789029308404868</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1.1206147584281834</v>
+      </c>
+      <c r="O4">
+        <v>-1.2415376869169794e-15</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1.1789029308404868</v>
+      </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B5">
+        <v>1.9999999999999993</v>
+      </c>
+      <c r="D5">
+        <v>4.2426406871192839</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1.1789029308404841</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>1.9999999999999993</v>
+      </c>
+      <c r="O5">
+        <v>4.2426406871192839</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1.1789029308404841</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3.3472963553338602</v>
+      </c>
+      <c r="D6">
         <v>1.5783478438894794e-15</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>0.17890293084048522</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>3.3472963553338602</v>
+      </c>
+      <c r="O6">
+        <v>1.5783478438894794e-15</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>-1</v>
+      </c>
+      <c r="U6">
+        <v>0.17890293084048522</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3.3472963553338619</v>
+      </c>
+      <c r="D7">
         <v>1.6413372503920981e-15</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>0.17890293084048656</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>3.3472963553338619</v>
+      </c>
+      <c r="O7">
+        <v>1.6413372503920981e-15</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>-1</v>
+      </c>
+      <c r="U7">
+        <v>0.17890293084048656</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4.5320888862379549</v>
+      </c>
+      <c r="D8">
         <v>-1.8335585950312461e-16</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>0.17890293084048683</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>4.5320888862379549</v>
+      </c>
+      <c r="O8">
+        <v>-1.8335585950312461e-16</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>-1</v>
+      </c>
+      <c r="U8">
+        <v>0.17890293084048683</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4.5320888862379567</v>
+      </c>
+      <c r="D9">
         <v>-1.4195463832946782e-15</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>0.17890293084048645</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>4.5320888862379567</v>
+      </c>
+      <c r="O9">
+        <v>-1.4195463832946782e-15</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>-1</v>
+      </c>
+      <c r="U9">
+        <v>0.17890293084048645</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="D10">
         <v>-7.8576308048852865e-16</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>0.17890293084048381</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="O10">
+        <v>-7.8576308048852865e-16</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>-1</v>
+      </c>
+      <c r="U10">
+        <v>0.17890293084048381</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="D11">
         <v>-5.4408253053670171e-16</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11">
       <c r="F11">
         <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>0.17890293084048434</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="O11">
+        <v>-5.4408253053670171e-16</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>-1</v>
+      </c>
+      <c r="U11">
+        <v>0.17890293084048434</v>
       </c>
     </row>
     <row r="12">
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="F16">
         <v>0</v>
       </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="F17">
         <v>0</v>
       </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="F18">
         <v>0</v>
       </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="F19">
         <v>0</v>
       </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>0</v>
       </c>
     </row>

--- a/Chart/YNetwork/Data.xlsx
+++ b/Chart/YNetwork/Data.xlsx
@@ -78,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="125">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -130,91 +130,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -260,86 +180,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,18 +193,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="true"/>
-    <col min="2" max="2" width="2.140625" customWidth="true"/>
-    <col min="4" max="4" width="2.140625" customWidth="true"/>
+    <col min="2" max="2" width="15.28515625" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="2.140625" customWidth="true"/>
     <col min="8" max="8" width="2.85546875" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="5" customWidth="true"/>
     <col min="13" max="13" width="15.28515625" customWidth="true"/>
-    <col min="15" max="15" width="16.28515625" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="2.140625" customWidth="true"/>
     <col min="19" max="19" width="2.85546875" customWidth="true"/>
-    <col min="21" max="21" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="2.140625" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -404,10 +243,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.9999999999999938</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>-5.5294310796760726e-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -419,7 +255,7 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>2.1789029308404864</v>
+        <v>0</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>0</v>
@@ -428,7 +264,7 @@
         <v>-5.5294310796760726e-16</v>
       </c>
       <c r="O2">
-        <v>-1.187102262763566e-15</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -437,7 +273,7 @@
         <v>3</v>
       </c>
       <c r="U2">
-        <v>2.1789029308404864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -445,10 +281,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1.9999999999999987</v>
+        <v>1.120614758428182</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -460,7 +293,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.1789029308404861</v>
+        <v>0</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>1</v>
@@ -469,7 +302,7 @@
         <v>1.120614758428182</v>
       </c>
       <c r="O3">
-        <v>1.8406841159786169e-15</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -478,7 +311,7 @@
         <v>1</v>
       </c>
       <c r="U3">
-        <v>1.1789029308404861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -486,13 +319,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>1.1206147584281834</v>
       </c>
       <c r="D4">
-        <v>-5.8011106960588564e-17</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -501,7 +331,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.1789029308404868</v>
+        <v>0</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>2</v>
@@ -510,7 +340,7 @@
         <v>1.1206147584281834</v>
       </c>
       <c r="O4">
-        <v>-1.2415376869169794e-15</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -519,7 +349,7 @@
         <v>1</v>
       </c>
       <c r="U4">
-        <v>1.1789029308404868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -539,7 +369,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.1789029308404841</v>
+        <v>1.6149060419388173</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>3</v>
@@ -557,7 +387,7 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>1.1789029308404841</v>
+        <v>1.6149060419388173</v>
       </c>
     </row>
     <row r="6">
@@ -568,7 +398,7 @@
         <v>3.3472963553338602</v>
       </c>
       <c r="D6">
-        <v>1.5783478438894794e-15</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -577,7 +407,7 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>0.17890293084048522</v>
+        <v>0</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>4</v>
@@ -586,7 +416,7 @@
         <v>3.3472963553338602</v>
       </c>
       <c r="O6">
-        <v>1.5783478438894794e-15</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -595,7 +425,7 @@
         <v>-1</v>
       </c>
       <c r="U6">
-        <v>0.17890293084048522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -606,7 +436,7 @@
         <v>3.3472963553338619</v>
       </c>
       <c r="D7">
-        <v>1.6413372503920981e-15</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -615,7 +445,7 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>0.17890293084048656</v>
+        <v>0</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>5</v>
@@ -624,7 +454,7 @@
         <v>3.3472963553338619</v>
       </c>
       <c r="O7">
-        <v>1.6413372503920981e-15</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -633,7 +463,7 @@
         <v>-1</v>
       </c>
       <c r="U7">
-        <v>0.17890293084048656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -644,7 +474,7 @@
         <v>4.5320888862379549</v>
       </c>
       <c r="D8">
-        <v>-1.8335585950312461e-16</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -653,7 +483,7 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>0.17890293084048683</v>
+        <v>0</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>6</v>
@@ -662,7 +492,7 @@
         <v>4.5320888862379549</v>
       </c>
       <c r="O8">
-        <v>-1.8335585950312461e-16</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -671,7 +501,7 @@
         <v>-1</v>
       </c>
       <c r="U8">
-        <v>0.17890293084048683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,7 +512,7 @@
         <v>4.5320888862379567</v>
       </c>
       <c r="D9">
-        <v>-1.4195463832946782e-15</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -691,7 +521,7 @@
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>0.17890293084048645</v>
+        <v>0</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>7</v>
@@ -700,7 +530,7 @@
         <v>4.5320888862379567</v>
       </c>
       <c r="O9">
-        <v>-1.4195463832946782e-15</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -709,7 +539,7 @@
         <v>-1</v>
       </c>
       <c r="U9">
-        <v>0.17890293084048645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -720,7 +550,7 @@
         <v>4.9999999999999991</v>
       </c>
       <c r="D10">
-        <v>-7.8576308048852865e-16</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -729,7 +559,7 @@
         <v>-1</v>
       </c>
       <c r="J10">
-        <v>0.17890293084048381</v>
+        <v>0</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>8</v>
@@ -738,7 +568,7 @@
         <v>4.9999999999999991</v>
       </c>
       <c r="O10">
-        <v>-7.8576308048852865e-16</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -747,7 +577,7 @@
         <v>-1</v>
       </c>
       <c r="U10">
-        <v>0.17890293084048381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -758,7 +588,7 @@
         <v>5.0000000000000009</v>
       </c>
       <c r="D11">
-        <v>-5.4408253053670171e-16</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -767,7 +597,7 @@
         <v>-1</v>
       </c>
       <c r="J11">
-        <v>0.17890293084048434</v>
+        <v>0</v>
       </c>
       <c r="L11" s="23" t="s">
         <v>9</v>
@@ -776,7 +606,7 @@
         <v>5.0000000000000009</v>
       </c>
       <c r="O11">
-        <v>-5.4408253053670171e-16</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -785,7 +615,7 @@
         <v>-1</v>
       </c>
       <c r="U11">
-        <v>0.17890293084048434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
